--- a/BDD/bdd.xlsx
+++ b/BDD/bdd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivi1\Desktop\Ensai 3A\Meta_Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivi1\Desktop\Ensai 3A\Meta_Analyse\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3496C501-6A9A-4940-8E1E-4FF330918ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A131804-3345-40AF-8181-6836056FD2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>s[]</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>5.47</t>
-  </si>
-  <si>
-    <t>7.8</t>
   </si>
   <si>
     <t>ae_trt[]</t>
@@ -1003,7 +1000,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,19 +1029,19 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -1186,8 +1183,8 @@
       <c r="E5">
         <v>-0.64</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
+      <c r="F5" s="1">
+        <v>7.8</v>
       </c>
       <c r="G5">
         <f>2.9+12.9</f>
@@ -1268,8 +1265,8 @@
         <v>-5.44</v>
       </c>
       <c r="F7" s="2">
-        <f>E7/2.5/SQRT(1/B7+1/C7)</f>
-        <v>-9.3044762026352359</v>
+        <f>-E7/2.5/SQRT(1/B7+1/C7)</f>
+        <v>9.3044762026352359</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1282,11 +1279,11 @@
         <v>-7</v>
       </c>
       <c r="J7">
-        <f>ROUND(G7*B7/100,0)</f>
+        <f t="shared" ref="J7:K10" si="0">ROUND(G7*B7/100,0)</f>
         <v>4</v>
       </c>
       <c r="K7">
-        <f>ROUND(H7*C7/100,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L7">
@@ -1310,8 +1307,8 @@
         <v>-3.31</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F9" si="0">E8/2.5/SQRT(1/B8+1/C8)</f>
-        <v>-5.661363277706366</v>
+        <f>-E8/2.5/SQRT(1/B8+1/C8)</f>
+        <v>5.661363277706366</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1324,11 +1321,11 @@
         <v>-4</v>
       </c>
       <c r="J8">
-        <f>ROUND(G8*B8/100,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K8">
-        <f>ROUND(H8*C8/100,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L8">
@@ -1352,8 +1349,8 @@
         <v>-4.45</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>-7.7932358282888297</v>
+        <f>-E9/2.5/SQRT(1/B9+1/C9)</f>
+        <v>7.7932358282888297</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1366,11 +1363,11 @@
         <v>-4</v>
       </c>
       <c r="J9">
-        <f>ROUND(G9*B9/100,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K9">
-        <f>ROUND(H9*C9/100,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L9">
@@ -1408,11 +1405,11 @@
         <v>0.29999999999999893</v>
       </c>
       <c r="J10">
-        <f>ROUND(G10*B10/100,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="K10">
-        <f>ROUND(H10*C10/100,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="L10">

--- a/BDD/bdd.xlsx
+++ b/BDD/bdd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivi1\Desktop\Ensai 3A\Meta_Analyse\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A131804-3345-40AF-8181-6836056FD2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878249BF-B826-410F-AB8D-CC4FBFA1F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>s[]</t>
   </si>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,20 +1107,20 @@
       <c r="F3" s="2">
         <v>3.8</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
